--- a/Projects/CampRoster/roster.xlsx
+++ b/Projects/CampRoster/roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="2466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="2465">
   <si>
     <t>Firstname</t>
   </si>
@@ -7415,9 +7415,6 @@
   </si>
   <si>
     <t>Hedges</t>
-  </si>
-  <si>
-    <t>http://forestrycamp.berkeley.edu/portfolio/2014/</t>
   </si>
 </sst>
 </file>
@@ -8245,10 +8242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2046"/>
+  <dimension ref="A1:E2046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2024" workbookViewId="0">
-      <selection activeCell="G2046" sqref="G2046"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8256,7 +8253,7 @@
     <col min="5" max="5" width="10.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8272,11 +8269,8 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -8292,7 +8286,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -8308,7 +8302,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -8324,7 +8318,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -8340,7 +8334,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -8356,7 +8350,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -8372,7 +8366,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -8388,7 +8382,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -8404,7 +8398,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -8420,7 +8414,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -8436,7 +8430,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -8452,7 +8446,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -8468,7 +8462,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8478,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -8500,7 +8494,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>

--- a/Projects/CampRoster/roster.xlsx
+++ b/Projects/CampRoster/roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="2465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="2466">
   <si>
     <t>Firstname</t>
   </si>
@@ -7415,6 +7415,9 @@
   </si>
   <si>
     <t>Hedges</t>
+  </si>
+  <si>
+    <t>https://forestrycamp.berkeley.edu/camp-yearbook/#prettyPhoto/3/</t>
   </si>
 </sst>
 </file>
@@ -8242,10 +8245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2046"/>
+  <dimension ref="A1:F2046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D2045"/>
+    <sheetView tabSelected="1" topLeftCell="A1026" workbookViewId="0">
+      <selection activeCell="F1047" sqref="F1047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8253,7 +8256,7 @@
     <col min="5" max="5" width="10.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8269,8 +8272,11 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>411</v>
       </c>
@@ -8286,7 +8292,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>259</v>
       </c>
@@ -8302,7 +8308,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>197</v>
       </c>
@@ -8318,7 +8324,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>489</v>
       </c>
@@ -8334,7 +8340,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -8350,7 +8356,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>629</v>
       </c>
@@ -8366,7 +8372,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>719</v>
       </c>
@@ -8382,7 +8388,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>635</v>
       </c>
@@ -8398,7 +8404,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
@@ -8414,7 +8420,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>212</v>
       </c>
@@ -8430,7 +8436,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>814</v>
       </c>
@@ -8446,7 +8452,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>440</v>
       </c>
@@ -8462,7 +8468,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -8478,7 +8484,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>288</v>
       </c>
@@ -8494,7 +8500,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>197</v>
       </c>
